--- a/South German Credit/Performance_metrics/model_perf_metrics_mean_of_iterations_only_with_cfs__200_300__1_2_3_5.xlsx
+++ b/South German Credit/Performance_metrics/model_perf_metrics_mean_of_iterations_only_with_cfs__200_300__1_2_3_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>F1_std(%)</t>
+          <t>F1 (%)_std</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>AUC_std(%)</t>
+          <t>AUC (%)_std</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -502,16 +502,16 @@
         <v>700</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8522982236075992</v>
+        <v>0.8533662027987668</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00822399</v>
+        <v>0.00314594</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6829354855670646</v>
+        <v>0.8122535359377465</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01617613</v>
+        <v>0.00506073</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>700</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8154897494305235</v>
+        <v>0.8154897494305238</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6480098848519903</v>
+        <v>0.7745938272254063</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -554,32 +554,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LR_sample:100_cf:1_mean_of_30_iterations_only_cf</t>
+          <t>LR_sample:20_cf:1_mean_of_2_iterations_only_cf</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6519881753980138</v>
+        <v>0.306772544724352</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0447934</v>
+        <v>0.0417123</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6347739979318926</v>
+        <v>0.6504548083495452</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02733215</v>
+        <v>0.0145118</v>
       </c>
     </row>
     <row r="5">
@@ -588,32 +588,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LR_sample:100_cf:2_mean_of_30_iterations_only_cf</t>
+          <t>LR_sample:20_cf:2_mean_of_2_iterations_only_cf</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6766387775072146</v>
+        <v>0.4536248725306519</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0374531</v>
+        <v>0.0295966</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6374528979792137</v>
+        <v>0.6072874493927125</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02051823</v>
+        <v>0.02055839</v>
       </c>
     </row>
     <row r="6">
@@ -622,32 +622,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LR_sample:100_cf:3_mean_of_30_iterations_only_cf</t>
+          <t>LR_sample:25_cf:1_mean_of_2_iterations_only_cf</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G6" t="n">
-        <v>0.694844394141933</v>
+        <v>0.4357151795770242</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02687985</v>
+        <v>0.11510449</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6507588902325743</v>
+        <v>0.608601924391398</v>
       </c>
       <c r="J6" t="n">
-        <v>0.019067</v>
+        <v>0.02213576</v>
       </c>
     </row>
     <row r="7">
@@ -656,304 +656,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LR_sample:100_cf:5_mean_of_30_iterations_only_cf</t>
+          <t>LR_sample:25_cf:2_mean_of_2_iterations_only_cf</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7008735201499628</v>
+        <v>0.4401147140952429</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01919567</v>
+        <v>0.10940605</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6444301312722367</v>
+        <v>0.646747988853252</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01667952</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LR_sample:200_cf:1_mean_of_30_iterations_only_cf</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" t="n">
-        <v>200</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>200</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.7219543849816787</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0301967</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.669156282314177</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.02170454</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>LR_sample:200_cf:2_mean_of_30_iterations_only_cf</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" t="n">
-        <v>200</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>400</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.7490932863374959</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.01885501</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.6807411886359256</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.02106168</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>LR_sample:200_cf:3_mean_of_30_iterations_only_cf</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" t="n">
-        <v>200</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>600</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.75986679121269</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.01758737</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.6829135776504197</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.0165746</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>LR_sample:200_cf:5_mean_of_30_iterations_only_cf</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" t="n">
-        <v>200</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.7631650499244711</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.0120576</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.6822098953677902</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.01155696</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>LR_sample:300_cf:1_mean_of_30_iterations_only_cf</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" t="n">
-        <v>300</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>300</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.7547296587570761</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.02360937</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.686010480747323</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.02082283</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>LR_sample:300_cf:2_mean_of_30_iterations_only_cf</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" t="n">
-        <v>300</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>600</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.7660024960477779</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.01257574</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.6888357256778307</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.01784245</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>LR_sample:300_cf:3_mean_of_30_iterations_only_cf</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" t="n">
-        <v>300</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>900</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.7725489482649081</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.01443608</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.6879304905620695</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.01280331</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>LR_sample:300_cf:5_mean_of_30_iterations_only_cf</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>30</v>
-      </c>
-      <c r="D15" t="n">
-        <v>300</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.7755552004317143</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.01160863</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.6853243247980089</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.01651862</v>
+        <v>0.01133077</v>
       </c>
     </row>
   </sheetData>

--- a/South German Credit/Performance_metrics/model_perf_metrics_mean_of_iterations_only_with_cfs__200_300__1_2_3_5.xlsx
+++ b/South German Credit/Performance_metrics/model_perf_metrics_mean_of_iterations_only_with_cfs__200_300__1_2_3_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -502,16 +502,16 @@
         <v>700</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8533662027987668</v>
+        <v>0.851703681088677</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00314594</v>
+        <v>0.01002318</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8122535359377465</v>
+        <v>0.6786371523213628</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00506073</v>
+        <v>0.022623</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>700</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8154897494305238</v>
+        <v>0.815489749430524</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7745938272254063</v>
+        <v>0.6480098848519902</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -554,32 +554,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LR_sample:20_cf:1_mean_of_2_iterations_only_cf</t>
+          <t>LR_sample:200_cf:1_mean_of_15_iterations_only_cf</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G4" t="n">
-        <v>0.306772544724352</v>
+        <v>0.7032951115963211</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0417123</v>
+        <v>0.03006063</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6504548083495452</v>
+        <v>0.6617382617382616</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0145118</v>
+        <v>0.0145818</v>
       </c>
     </row>
     <row r="5">
@@ -588,32 +588,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LR_sample:20_cf:2_mean_of_2_iterations_only_cf</t>
+          <t>LR_sample:200_cf:2_mean_of_15_iterations_only_cf</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4536248725306519</v>
+        <v>0.7269388219176023</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0295966</v>
+        <v>0.02215052</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6072874493927125</v>
+        <v>0.6723697355276302</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02055839</v>
+        <v>0.02330218</v>
       </c>
     </row>
     <row r="6">
@@ -622,32 +622,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LR_sample:25_cf:1_mean_of_2_iterations_only_cf</t>
+          <t>LR_sample:200_cf:3_mean_of_15_iterations_only_cf</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>25</v>
+        <v>600</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4357151795770242</v>
+        <v>0.737936943159244</v>
       </c>
       <c r="H6" t="n">
-        <v>0.11510449</v>
+        <v>0.0276885</v>
       </c>
       <c r="I6" t="n">
-        <v>0.608601924391398</v>
+        <v>0.6782112624217888</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02213576</v>
+        <v>0.0190239</v>
       </c>
     </row>
     <row r="7">
@@ -656,32 +656,168 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LR_sample:25_cf:2_mean_of_2_iterations_only_cf</t>
+          <t>LR_sample:200_cf:5_mean_of_15_iterations_only_cf</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>200</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.7447547077891047</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.01412982</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.6704996757628338</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01024418</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LR_sample:300_cf:1_mean_of_15_iterations_only_cf</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>300</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>300</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.7256443869647077</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.01851053</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.6729726413936941</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.02313953</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>LR_sample:300_cf:2_mean_of_15_iterations_only_cf</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>300</v>
+      </c>
+      <c r="E9" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
-        <v>25</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>50</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.4401147140952429</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.10940605</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.646747988853252</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.01133077</v>
+      <c r="F9" t="n">
+        <v>600</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.7419382785213824</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.01729391</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.6867483393799183</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.01711291</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>LR_sample:300_cf:3_mean_of_15_iterations_only_cf</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>15</v>
+      </c>
+      <c r="D10" t="n">
+        <v>300</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>900</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.7481970791459494</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.01221705</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.6835094729831571</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01146405</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>LR_sample:300_cf:5_mean_of_15_iterations_only_cf</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>15</v>
+      </c>
+      <c r="D11" t="n">
+        <v>300</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.7543801906389802</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.009346439999999999</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.6750179644916486</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.01226899</v>
       </c>
     </row>
   </sheetData>
